--- a/project2_cylinder.xlsx
+++ b/project2_cylinder.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgeaslen/Dropbox/Masters/me7120/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgeaslen/ME7120_Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="440" windowWidth="11880" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="2880" yWindow="440" windowWidth="11880" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="project2_cylinder3.csv" sheetId="3" r:id="rId2"/>
     <sheet name="project2_cylinder.csv" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="E67">
         <f>VLOOKUP(C67,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="F67">
         <f>VLOOKUP(C67,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="E71">
         <f>VLOOKUP(C71,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>30.6</v>
+        <v>-30.6</v>
       </c>
       <c r="F71">
         <f>VLOOKUP(C71,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E82">
         <f>VLOOKUP(C82,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="F82">
         <f>VLOOKUP(C82,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E86">
         <f>VLOOKUP(C86,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>30.6</v>
+        <v>-30.6</v>
       </c>
       <c r="F86">
         <f>VLOOKUP(C86,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="E163">
         <f>VLOOKUP(C163,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>30.6</v>
+        <v>-30.6</v>
       </c>
       <c r="F163">
         <f>VLOOKUP(C163,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="E167">
         <f>VLOOKUP(C167,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>24.200000000000003</v>
+        <v>-24.200000000000003</v>
       </c>
       <c r="F167">
         <f>VLOOKUP(C167,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="E178">
         <f>VLOOKUP(C178,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>30.6</v>
+        <v>-30.6</v>
       </c>
       <c r="F178">
         <f>VLOOKUP(C178,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="E182">
         <f>VLOOKUP(C182,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>24.200000000000003</v>
+        <v>-24.200000000000003</v>
       </c>
       <c r="F182">
         <f>VLOOKUP(C182,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="E259">
         <f>VLOOKUP(C259,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>24.200000000000003</v>
+        <v>-24.200000000000003</v>
       </c>
       <c r="F259">
         <f>VLOOKUP(C259,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="E263">
         <f>VLOOKUP(C263,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>17.800000000000004</v>
+        <v>-17.800000000000004</v>
       </c>
       <c r="F263">
         <f>VLOOKUP(C263,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="E274">
         <f>VLOOKUP(C274,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>24.200000000000003</v>
+        <v>-24.200000000000003</v>
       </c>
       <c r="F274">
         <f>VLOOKUP(C274,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="E278">
         <f>VLOOKUP(C278,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>17.800000000000004</v>
+        <v>-17.800000000000004</v>
       </c>
       <c r="F278">
         <f>VLOOKUP(C278,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="E355">
         <f>VLOOKUP(C355,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>17.800000000000004</v>
+        <v>-17.800000000000004</v>
       </c>
       <c r="F355">
         <f>VLOOKUP(C355,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="E359">
         <f>VLOOKUP(C359,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>11.400000000000004</v>
+        <v>-11.400000000000004</v>
       </c>
       <c r="F359">
         <f>VLOOKUP(C359,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="E370">
         <f>VLOOKUP(C370,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>17.800000000000004</v>
+        <v>-17.800000000000004</v>
       </c>
       <c r="F370">
         <f>VLOOKUP(C370,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="E374">
         <f>VLOOKUP(C374,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>11.400000000000004</v>
+        <v>-11.400000000000004</v>
       </c>
       <c r="F374">
         <f>VLOOKUP(C374,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -10363,7 +10363,7 @@
       </c>
       <c r="E451">
         <f>VLOOKUP(C451,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>11.400000000000004</v>
+        <v>-11.400000000000004</v>
       </c>
       <c r="F451">
         <f>VLOOKUP(C451,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="E455">
         <f>VLOOKUP(C455,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>5.0000000000000036</v>
+        <v>-5.0000000000000036</v>
       </c>
       <c r="F455">
         <f>VLOOKUP(C455,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="E466">
         <f>VLOOKUP(C466,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>11.400000000000004</v>
+        <v>-11.400000000000004</v>
       </c>
       <c r="F466">
         <f>VLOOKUP(C466,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="E470">
         <f>VLOOKUP(C470,project2_cylinder.csv!$A$1:$D$102,3,FALSE)</f>
-        <v>5.0000000000000036</v>
+        <v>-5.0000000000000036</v>
       </c>
       <c r="F470">
         <f>VLOOKUP(C470,project2_cylinder.csv!$A$1:$D$102,4,FALSE)</f>
@@ -12986,8 +12986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="B18:C18" si="0">C1</f>
+        <f t="shared" ref="C18" si="0">C1</f>
         <v>0</v>
       </c>
       <c r="D18">
@@ -13254,7 +13254,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:C31" si="2">IF(B2&gt;0,B2-3.2,IF(B2&lt;0,B2+3.2,0))</f>
+        <f t="shared" ref="B19:C26" si="2">IF(B2&gt;0,B2-3.2,IF(B2&lt;0,B2+3.2,0))</f>
         <v>15.3</v>
       </c>
       <c r="C19">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="C33">
         <f>IF(C16&gt;0,C16-6.4,IF(C16&lt;0,C16+6.4,0))</f>
-        <v>30.6</v>
+        <v>-30.6</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="C50">
         <f>IF(C33&gt;0,C33-6.4,IF(C33&lt;0,C33+6.4,0))</f>
-        <v>24.200000000000003</v>
+        <v>-24.200000000000003</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
@@ -14075,7 +14075,7 @@
       </c>
       <c r="C67">
         <f>IF(C50&gt;0,C50-6.4,IF(C50&lt;0,C50+6.4,0))</f>
-        <v>17.800000000000004</v>
+        <v>-17.800000000000004</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
@@ -14364,7 +14364,7 @@
       </c>
       <c r="C84">
         <f>IF(C67&gt;0,C67-6.4,IF(C67&lt;0,C67+6.4,0))</f>
-        <v>11.400000000000004</v>
+        <v>-11.400000000000004</v>
       </c>
       <c r="D84">
         <f t="shared" si="30"/>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="C101">
         <f>IF(C84&gt;0,C84-6.4,IF(C84&lt;0,C84+6.4,0))</f>
-        <v>5.0000000000000036</v>
+        <v>-5.0000000000000036</v>
       </c>
       <c r="D101">
         <f t="shared" si="30"/>

--- a/project2_cylinder.xlsx
+++ b/project2_cylinder.xlsx
@@ -53,16 +53,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000000E+00"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,7 +88,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12984,15 +12981,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F1" sqref="F1:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -13005,8 +13006,20 @@
       <c r="D1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -13019,8 +13032,20 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.85E-8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -13033,8 +13058,20 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.85E-8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.85E-8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13047,8 +13084,20 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.85E-8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -13061,8 +13110,20 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1.85E-8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.85E-8</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13075,8 +13136,20 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1.85E-8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13089,8 +13162,20 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-1.85E-8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-1.85E-8</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -13103,8 +13188,20 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-1.85E-8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -13117,8 +13214,20 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.85E-8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-1.85E-8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -13131,9 +13240,20 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.7E-8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -13146,9 +13266,20 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.6162950903902258E-8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.6162950903902258E-8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -13161,8 +13292,20 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.7E-8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -13175,8 +13318,20 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-2.6162950903902301E-8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.6162950903902258E-8</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -13189,8 +13344,20 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-3.7E-8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -13203,8 +13370,20 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-2.6162950903902301E-8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-2.6162950903902301E-8</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -13217,8 +13396,20 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-3.7E-8</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -13231,8 +13422,20 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.6162950903902301E-8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-2.6162950903902301E-8</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -13248,8 +13451,20 @@
         <f t="shared" ref="D18:D81" si="1">D1+38</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -13265,8 +13480,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.5300000000000001E-8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -13282,8 +13509,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.5300000000000001E-8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.5300000000000001E-8</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -13299,8 +13538,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.5300000000000001E-8</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -13316,8 +13567,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1.5300000000000001E-8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.5300000000000001E-8</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -13333,8 +13596,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-1.5300000000000001E-8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -13350,8 +13625,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-1.5300000000000001E-8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-1.5300000000000001E-8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -13367,8 +13654,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-1.5300000000000001E-8</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -13384,8 +13683,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.5300000000000001E-8</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-1.5300000000000001E-8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -13401,8 +13712,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.0600000000000003E-8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -13418,8 +13741,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.1637467504308356E-8</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.1637467504308356E-8</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -13435,8 +13770,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3.0600000000000003E-8</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -13452,8 +13799,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-2.1637467504308399E-8</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.1637467504308356E-8</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -13469,8 +13828,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-3.0600000000000003E-8</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -13486,8 +13857,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>32</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-2.1637467504308399E-8</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-2.1637467504308399E-8</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -13503,8 +13886,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>33</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-3.0600000000000003E-8</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -13520,8 +13915,20 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>34</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2.1637467504308399E-8</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-2.1637467504308399E-8</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3.8000000000000003E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -13537,8 +13944,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -13554,8 +13973,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1.2100000000000002E-8</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -13571,8 +14002,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.2100000000000002E-8</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.2100000000000002E-8</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -13588,8 +14031,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1.2100000000000002E-8</v>
+      </c>
+      <c r="I38" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -13605,8 +14060,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39" s="2">
+        <v>-1.2100000000000002E-8</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1.2100000000000002E-8</v>
+      </c>
+      <c r="I39" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -13622,8 +14089,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-1.2100000000000002E-8</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -13639,8 +14118,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="G41" s="2">
+        <v>-1.2100000000000002E-8</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-1.2100000000000002E-8</v>
+      </c>
+      <c r="I41" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -13656,8 +14147,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>42</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-1.2100000000000002E-8</v>
+      </c>
+      <c r="I42" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -13673,8 +14176,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>43</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.2100000000000002E-8</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-1.2100000000000002E-8</v>
+      </c>
+      <c r="I43" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -13690,8 +14205,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>44</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2.4200000000000005E-8</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -13707,8 +14234,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>45</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.7111984104714454E-8</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1.7111984104714454E-8</v>
+      </c>
+      <c r="I45" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -13724,8 +14263,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>46</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2.4200000000000005E-8</v>
+      </c>
+      <c r="I46" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -13741,8 +14292,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>47</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-1.7111984104714494E-8</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1.7111984104714454E-8</v>
+      </c>
+      <c r="I47" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -13758,8 +14321,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>48</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-2.4200000000000005E-8</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -13775,8 +14350,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>49</v>
+      </c>
+      <c r="G49" s="2">
+        <v>-1.7111984104714494E-8</v>
+      </c>
+      <c r="H49" s="2">
+        <v>-1.7111984104714494E-8</v>
+      </c>
+      <c r="I49" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -13792,8 +14379,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>-2.4200000000000005E-8</v>
+      </c>
+      <c r="I50" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -13809,8 +14408,20 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>51</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1.7111984104714494E-8</v>
+      </c>
+      <c r="H51" s="2">
+        <v>-1.7111984104714494E-8</v>
+      </c>
+      <c r="I51" s="2">
+        <v>7.6000000000000006E-8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -13826,8 +14437,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>52</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -13843,8 +14466,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>53</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8.9000000000000019E-9</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -13860,8 +14495,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>54</v>
+      </c>
+      <c r="G54" s="2">
+        <v>8.9000000000000019E-9</v>
+      </c>
+      <c r="H54" s="2">
+        <v>8.9000000000000019E-9</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -13877,8 +14524,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>55</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>8.9000000000000019E-9</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -13894,8 +14553,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>56</v>
+      </c>
+      <c r="G56" s="2">
+        <v>-8.9000000000000019E-9</v>
+      </c>
+      <c r="H56" s="2">
+        <v>8.9000000000000019E-9</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -13911,8 +14582,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>57</v>
+      </c>
+      <c r="G57" s="2">
+        <v>-8.9000000000000019E-9</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -13928,8 +14611,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>58</v>
+      </c>
+      <c r="G58" s="2">
+        <v>-8.9000000000000019E-9</v>
+      </c>
+      <c r="H58" s="2">
+        <v>-8.9000000000000019E-9</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -13945,8 +14640,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>59</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>-8.9000000000000019E-9</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -13962,8 +14669,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60" s="2">
+        <v>8.9000000000000019E-9</v>
+      </c>
+      <c r="H60" s="2">
+        <v>-8.9000000000000019E-9</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -13979,8 +14698,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>61</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1.7800000000000004E-8</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -13996,8 +14727,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>62</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1.2586500705120549E-8</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1.2586500705120549E-8</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -14013,8 +14756,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>63</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1.7800000000000004E-8</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -14030,8 +14785,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>64</v>
+      </c>
+      <c r="G64" s="2">
+        <v>-1.2586500705120591E-8</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1.2586500705120549E-8</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -14047,8 +14814,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>65</v>
+      </c>
+      <c r="G65" s="2">
+        <v>-1.7800000000000004E-8</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -14064,8 +14843,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>66</v>
+      </c>
+      <c r="G66" s="2">
+        <v>-1.2586500705120591E-8</v>
+      </c>
+      <c r="H66" s="2">
+        <v>-1.2586500705120591E-8</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -14081,8 +14872,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>67</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>-1.7800000000000004E-8</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -14098,8 +14901,20 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>68</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1.2586500705120591E-8</v>
+      </c>
+      <c r="H68" s="2">
+        <v>-1.2586500705120591E-8</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1.14E-7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -14115,8 +14930,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>69</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -14132,8 +14959,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>70</v>
+      </c>
+      <c r="G70" s="2">
+        <v>5.7000000000000022E-9</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -14149,8 +14988,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>71</v>
+      </c>
+      <c r="G71" s="2">
+        <v>5.7000000000000022E-9</v>
+      </c>
+      <c r="H71" s="2">
+        <v>5.7000000000000022E-9</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -14166,8 +15017,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>72</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>5.7000000000000022E-9</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -14183,8 +15046,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>73</v>
+      </c>
+      <c r="G73" s="2">
+        <v>-5.7000000000000022E-9</v>
+      </c>
+      <c r="H73" s="2">
+        <v>5.7000000000000022E-9</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -14200,8 +15075,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>74</v>
+      </c>
+      <c r="G74" s="2">
+        <v>-5.7000000000000022E-9</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -14217,8 +15104,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>75</v>
+      </c>
+      <c r="G75" s="2">
+        <v>-5.7000000000000022E-9</v>
+      </c>
+      <c r="H75" s="2">
+        <v>-5.7000000000000022E-9</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -14234,8 +15133,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>76</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>-5.7000000000000022E-9</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -14251,8 +15162,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>77</v>
+      </c>
+      <c r="G77" s="2">
+        <v>5.7000000000000022E-9</v>
+      </c>
+      <c r="H77" s="2">
+        <v>-5.7000000000000022E-9</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -14268,8 +15191,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>78</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1.1400000000000004E-8</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -14285,8 +15220,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>79</v>
+      </c>
+      <c r="G79" s="2">
+        <v>8.0610173055266442E-9</v>
+      </c>
+      <c r="H79" s="2">
+        <v>8.0610173055266442E-9</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -14302,8 +15249,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>80</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1.1400000000000004E-8</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -14319,8 +15278,20 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>81</v>
+      </c>
+      <c r="G81" s="2">
+        <v>-8.0610173055266872E-9</v>
+      </c>
+      <c r="H81" s="2">
+        <v>8.0610173055266442E-9</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -14336,8 +15307,20 @@
         <f t="shared" ref="D82:D102" si="30">D65+38</f>
         <v>152</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>82</v>
+      </c>
+      <c r="G82" s="2">
+        <v>-1.1400000000000004E-8</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -14353,8 +15336,20 @@
         <f t="shared" si="30"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>83</v>
+      </c>
+      <c r="G83" s="2">
+        <v>-8.0610173055266872E-9</v>
+      </c>
+      <c r="H83" s="2">
+        <v>-8.0610173055266872E-9</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -14370,8 +15365,20 @@
         <f t="shared" si="30"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>84</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>-1.1400000000000004E-8</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -14387,8 +15394,20 @@
         <f t="shared" si="30"/>
         <v>152</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>85</v>
+      </c>
+      <c r="G85" s="2">
+        <v>8.0610173055266872E-9</v>
+      </c>
+      <c r="H85" s="2">
+        <v>-8.0610173055266872E-9</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1.5200000000000001E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -14404,8 +15423,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>86</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -14421,8 +15452,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>87</v>
+      </c>
+      <c r="G87" s="2">
+        <v>2.5000000000000021E-9</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -14438,8 +15481,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>88</v>
+      </c>
+      <c r="G88" s="2">
+        <v>2.5000000000000021E-9</v>
+      </c>
+      <c r="H88" s="2">
+        <v>2.5000000000000021E-9</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -14455,8 +15510,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>89</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>2.5000000000000021E-9</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -14472,8 +15539,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>90</v>
+      </c>
+      <c r="G90" s="2">
+        <v>-2.5000000000000021E-9</v>
+      </c>
+      <c r="H90" s="2">
+        <v>2.5000000000000021E-9</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -14489,8 +15568,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>91</v>
+      </c>
+      <c r="G91" s="2">
+        <v>-2.5000000000000021E-9</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -14506,8 +15597,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>92</v>
+      </c>
+      <c r="G92" s="2">
+        <v>-2.5000000000000021E-9</v>
+      </c>
+      <c r="H92" s="2">
+        <v>-2.5000000000000021E-9</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -14523,8 +15626,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>93</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>-2.5000000000000021E-9</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -14540,8 +15655,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>94</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2.5000000000000021E-9</v>
+      </c>
+      <c r="H94" s="2">
+        <v>-2.5000000000000021E-9</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -14557,8 +15684,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>95</v>
+      </c>
+      <c r="G95" s="2">
+        <v>5.0000000000000042E-9</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -14574,8 +15713,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>96</v>
+      </c>
+      <c r="G96" s="2">
+        <v>3.5355339059327396E-9</v>
+      </c>
+      <c r="H96" s="2">
+        <v>3.5355339059327396E-9</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -14591,8 +15742,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>97</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>5.0000000000000042E-9</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -14608,8 +15771,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>98</v>
+      </c>
+      <c r="G98" s="2">
+        <v>-3.5355339059327822E-9</v>
+      </c>
+      <c r="H98" s="2">
+        <v>3.5355339059327396E-9</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -14625,8 +15800,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>99</v>
+      </c>
+      <c r="G99" s="2">
+        <v>-5.0000000000000042E-9</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -14642,8 +15829,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>100</v>
+      </c>
+      <c r="G100" s="2">
+        <v>-3.5355339059327822E-9</v>
+      </c>
+      <c r="H100" s="2">
+        <v>-3.5355339059327822E-9</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -14659,8 +15858,20 @@
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>101</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>-5.0000000000000042E-9</v>
+      </c>
+      <c r="I101" s="2">
+        <v>1.9000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -14675,6 +15886,18 @@
       <c r="D102">
         <f t="shared" si="30"/>
         <v>190</v>
+      </c>
+      <c r="F102">
+        <v>102</v>
+      </c>
+      <c r="G102" s="2">
+        <v>3.5355339059327822E-9</v>
+      </c>
+      <c r="H102" s="2">
+        <v>-3.5355339059327822E-9</v>
+      </c>
+      <c r="I102" s="2">
+        <v>1.9000000000000001E-7</v>
       </c>
     </row>
   </sheetData>
